--- a/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>68.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.98</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>36.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>22.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5170</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>22.45</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5154</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.09</v>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.6</v>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.53</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1346,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,91 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>68.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -549,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -600,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004952</t>
+          <t>006165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴全恒益债券A</t>
+          <t>建信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.93</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5170</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -638,36 +660,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004953</t>
+          <t>006166</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全恒益债券C</t>
+          <t>建信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0141</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -742,26 +802,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>21.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>34.79</t>
+          <t>96.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8178</t>
+          <t>0.5154</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -780,26 +840,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.20</t>
+          <t>31.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.39</t>
+          <t>23.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6583</t>
+          <t>0.5010</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +878,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>34.79</t>
+          <t>96.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1066</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -861,21 +921,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.39</t>
+          <t>23.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0219</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -950,26 +1010,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.93</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.78</t>
+          <t>34.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5154</t>
+          <t>0.8178</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -988,26 +1048,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.91</t>
+          <t>31.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.53</t>
+          <t>26.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5010</t>
+          <t>0.6583</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1026,26 +1086,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.78</t>
+          <t>34.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.1066</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1069,21 +1129,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.53</t>
+          <t>26.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0219</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,7 +1178,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1148,36 +1208,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006165</t>
+          <t>004952</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强A</t>
+          <t>兴全恒益债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>36.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.5170</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1186,74 +1246,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006166</t>
+          <t>004953</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强C</t>
+          <t>兴全恒益债券C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>22.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013442</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强E</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1267,112 +1289,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02</v>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300123-亚光科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.6</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -622,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006165</t>
+          <t>850007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强A</t>
+          <t>海通智选一年持有期股票B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>82.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -660,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006166</t>
+          <t>850788</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强C</t>
+          <t>海通智选一年持有期股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>82.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -698,33 +715,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013442</t>
+          <t>850799</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强E</t>
+          <t>海通智选一年持有期股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>82.33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -741,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +777,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -792,36 +807,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010673</t>
+          <t>006165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴全中证800六个月持有期指数增强A</t>
+          <t>建信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.93</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.78</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5154</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -830,32 +845,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004952</t>
+          <t>006166</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴全恒益债券A</t>
+          <t>建信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.91</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.53</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5010</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -868,73 +883,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010674</t>
+          <t>013442</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全中证800六个月持有期指数增强C</t>
+          <t>建信中证1000指数增强E</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.78</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004953</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴全恒益债券C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1010,26 +987,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>21.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>34.79</t>
+          <t>96.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8178</t>
+          <t>0.5154</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1048,26 +1025,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.20</t>
+          <t>31.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.39</t>
+          <t>23.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6583</t>
+          <t>0.5010</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1086,26 +1063,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>34.79</t>
+          <t>96.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1066</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1129,21 +1106,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.39</t>
+          <t>23.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0219</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1152,6 +1129,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6583</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1283,7 +1468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
